--- a/data/income_statement/3digits/total/109_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/109_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>109-Manufacture of prepared animal feeds</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>109-Manufacture of prepared animal feeds</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,20 +841,25 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>3977201.90885</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4974777.518270001</v>
+        <v>4974777.51827</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>6529063.40757</v>
@@ -962,34 +868,39 @@
         <v>8069504.32142</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>9124814.069019999</v>
+        <v>9124969.623039998</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>10106643.515</v>
+        <v>10106720.54025</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>10872001.87423</v>
+        <v>11411843.83236</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>12649969.7448</v>
+        <v>12785933.64512</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>16454838.79556</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>21988777.25739</v>
+        <v>21988959.00598</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>26047112.47807999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>26054554.12292</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>34142849.662</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3783025.040560001</v>
+        <v>3783025.04056</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>4799258.721220001</v>
@@ -998,34 +909,39 @@
         <v>6178884.54274</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>7615393.660539999</v>
+        <v>7615393.660540001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>8575738.729280001</v>
+        <v>8575894.283299999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>9522050.79654</v>
+        <v>9522127.821789999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>10347779.92634</v>
+        <v>10824598.10918</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>11957119.5394</v>
+        <v>12085613.07914</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>15473406.07234</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>20611822.68815</v>
+        <v>20611904.43674</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>24517345.19261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>24523897.90388</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>31876390.181</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>156457.66784</v>
@@ -1040,16 +956,16 @@
         <v>392440.68775</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>483721.73555</v>
+        <v>483721.7355500001</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>505296.95183</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>422202.06926</v>
+        <v>481527.66318</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>581157.66484</v>
+        <v>587717.2382499999</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>853149.44039</v>
@@ -1058,13 +974,18 @@
         <v>1209770.65315</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1362365.80734</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1363292.20835</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2042688.148</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>37719.20045</v>
@@ -1073,10 +994,10 @@
         <v>54120.25292</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>51904.7793</v>
+        <v>51904.77929999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>61669.97313000001</v>
+        <v>61669.97313</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>65353.60419</v>
@@ -1085,25 +1006,30 @@
         <v>79295.76663</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>102019.87863</v>
+        <v>105718.06</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>111692.54056</v>
+        <v>112603.32773</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>128283.28283</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>167183.91609</v>
+        <v>167283.91609</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>167401.47813</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>167364.01069</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>223771.333</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>194940.77847</v>
@@ -1112,7 +1038,7 @@
         <v>261006.66625</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>307710.7141400001</v>
+        <v>307710.71414</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>355636.601</v>
@@ -1124,28 +1050,33 @@
         <v>335984.8493</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>573021.7322800001</v>
+        <v>589172.5641699999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>396958.02597</v>
+        <v>414140.88733</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>618910.7600899999</v>
+        <v>618910.76009</v>
       </c>
       <c r="L9" s="47" t="n">
         <v>781062.62387</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>869775.19377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>869956.5050199999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1142354.915</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>7261.622429999999</v>
+        <v>7261.62243</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>9787.847900000001</v>
@@ -1163,10 +1094,10 @@
         <v>17443.81816</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>27996.40067</v>
+        <v>29451.35683</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>46018.99819</v>
+        <v>46270.09613</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>38533.72696</v>
@@ -1175,13 +1106,18 @@
         <v>106496.23634</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>81884.8983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>85027.99640999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>96312.02</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>175623.0602</v>
@@ -1199,13 +1135,13 @@
         <v>242666.82815</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>310072.7988800001</v>
+        <v>310072.79888</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>532713.81846</v>
+        <v>547389.80706</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>338974.11508</v>
+        <v>355905.8785</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>558545.08878</v>
@@ -1214,13 +1150,18 @@
         <v>625128.0570199999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>670735.20974</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>667773.42288</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>986348.612</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>12056.09584</v>
@@ -1241,7 +1182,7 @@
         <v>8468.232260000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>12311.51315</v>
+        <v>12331.40028</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>11964.9127</v>
@@ -1255,17 +1196,22 @@
       <c r="M12" s="48" t="n">
         <v>117155.08573</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>59694.283</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>3782261.13038</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4713770.85202</v>
+        <v>4713770.852019999</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>6221352.69343</v>
@@ -1274,31 +1220,36 @@
         <v>7713867.72042</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>8851249.89775</v>
+        <v>8851405.45177</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>9770658.6657</v>
+        <v>9770735.690950001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>10298980.14195</v>
+        <v>10822671.26819</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>12253011.71883</v>
+        <v>12371792.75779</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>15835928.03547</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>21207714.63352</v>
+        <v>21207896.38211</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>25177337.28431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>25184597.6179</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>33000494.747</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3296015.42104</v>
@@ -1307,37 +1258,42 @@
         <v>4220899.51459</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>5663536.59654</v>
+        <v>5663536.596540001</v>
       </c>
       <c r="F14" s="47" t="n">
         <v>7016514.05388</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>8023504.040370001</v>
+        <v>8023621.32053</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>8742917.12524</v>
+        <v>8743010.60234</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>9182590.38958</v>
+        <v>9621875.480839998</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>10765690.57305</v>
+        <v>10861769.33701</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>13810960.32876</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>18539733.91587</v>
+        <v>18539905.48465</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>22334164.81787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>22339964.79201</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>29434529.685</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2650042.08689</v>
@@ -1346,43 +1302,48 @@
         <v>3552551.37404</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>4710316.21314</v>
+        <v>4710316.213140001</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>5859832.592979999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>6607040.80932</v>
+        <v>6607099.08948</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>7511414.31608</v>
+        <v>7511505.69318</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>7832661.52197</v>
+        <v>8252844.740689999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>9504370.97892</v>
+        <v>9590727.030650001</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>11970660.37786</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>16376511.51507</v>
+        <v>16376613.7616</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>19661597.77588</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>19665716.47521</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>25570955.449</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>620288.15246</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>627180.2435900001</v>
+        <v>627180.24359</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>914580.24821</v>
@@ -1391,34 +1352,39 @@
         <v>1109607.47824</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1371062.54252</v>
+        <v>1371121.54252</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1177041.95358</v>
+        <v>1177044.05358</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1271501.60042</v>
+        <v>1289809.56894</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1127294.30288</v>
+        <v>1137017.01511</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1720078.95243</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2033420.45683</v>
+        <v>2033472.15194</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2524772.78726</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2526402.3356</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3731954.816</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>7239.083269999999</v>
+        <v>7239.08327</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>11207.79977</v>
@@ -1436,7 +1402,7 @@
         <v>22968.48152</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>25290.60362</v>
+        <v>25681.86230999999</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>33076.15213</v>
@@ -1445,16 +1411,21 @@
         <v>37760.31765</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>45986.1855</v>
+        <v>45997.08688</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>76657.41016</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>76709.13663000001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>49642.892</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>18446.09842</v>
@@ -1475,7 +1446,7 @@
         <v>31492.37406</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>53136.66356999999</v>
+        <v>53539.3089</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>100949.13912</v>
@@ -1484,55 +1455,65 @@
         <v>82460.68081999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>83815.75847</v>
+        <v>83822.48423</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>71136.84457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>71136.84456999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>81976.52800000001</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>486245.70934</v>
+        <v>486245.7093400001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>492871.3374300001</v>
+        <v>492871.33743</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>557816.0968899999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>697353.6665400001</v>
+        <v>697353.66654</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>827745.8573799999</v>
+        <v>827784.13124</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1027741.54046</v>
+        <v>1027725.08861</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1116389.75237</v>
+        <v>1200795.78735</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1487321.14578</v>
+        <v>1510023.42078</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2024967.70671</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2667980.71765</v>
+        <v>2667990.89746</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2843172.46644</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2844632.82589</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3565965.062</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>293571.77807</v>
@@ -1547,31 +1528,36 @@
         <v>519890.21167</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>593098.68094</v>
+        <v>593133.93163</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>682880.66211</v>
+        <v>682924.74627</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>745003.59909</v>
+        <v>793817.18608</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>832611.6156199999</v>
+        <v>850455.3899399999</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>975635.76246</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1218717.26135</v>
+        <v>1219297.54806</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1416555.10631</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1418953.14685</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1690009.542</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>940.0113999999999</v>
@@ -1580,37 +1566,42 @@
         <v>1204.80258</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>4099.57282</v>
+        <v>4099.572819999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3571.50444</v>
+        <v>3571.504440000001</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>3627.95555</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>9242.67561</v>
+        <v>9242.675610000002</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>5452.50159</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2829.92495</v>
+        <v>3069.55002</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>5243.08363</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>3368.5942</v>
+        <v>3391.48493</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4003.12173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4003.121729999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>6102.861</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>163491.82806</v>
@@ -1631,25 +1622,30 @@
         <v>409015.45211</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>453566.0637299999</v>
+        <v>481392.12812</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>499498.15459</v>
+        <v>507157.42973</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>604170.4335800001</v>
+        <v>604170.43358</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>764111.10999</v>
+        <v>764121.6378800001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>895692.4849800002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>895921.9334</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1055094.248</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>129139.93861</v>
@@ -1664,31 +1660,36 @@
         <v>202871.6929</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>234424.36809</v>
+        <v>234459.61878</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>264622.53439</v>
+        <v>264666.61855</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>285985.03377</v>
+        <v>306972.55637</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>330283.53608</v>
+        <v>340228.41019</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>366222.2452499999</v>
+        <v>366222.24525</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>451237.55716</v>
+        <v>451784.42525</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>516859.4996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>519028.09172</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>628812.433</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>192673.93127</v>
@@ -1703,70 +1704,80 @@
         <v>177463.45487</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>234647.17644</v>
+        <v>234650.19961</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>344860.87835</v>
+        <v>344800.34234</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>371386.15328</v>
+        <v>406978.60127</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>654709.53016</v>
+        <v>659568.03084</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1049331.94425</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1449263.4563</v>
+        <v>1448693.3494</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1426617.36013</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1425679.67904</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1875955.52</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>93058.98432</v>
+        <v>93058.98431999999</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>74642.88465000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>98102.36096000001</v>
+        <v>98102.36095999999</v>
       </c>
       <c r="F25" s="47" t="n">
         <v>106500.33099</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>180563.59262</v>
+        <v>180612.29262</v>
       </c>
       <c r="H25" s="47" t="n">
         <v>286492.89249</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>348822.2400700001</v>
+        <v>369310.6842000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>260069.08501</v>
+        <v>261761.30874</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>516487.13337</v>
+        <v>516487.1333699999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1571323.05262</v>
+        <v>1571593.15278</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>971614.3260899999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>971783.56773</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2159988.043</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>522.72727</v>
@@ -1787,7 +1798,7 @@
         <v>1256.22197</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1565.98036</v>
+        <v>1628.18555</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>542.60227</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>13381.01954</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>10061.339</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>698.84</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>39008.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>835.9640000000001</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>8307.606470000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>5183.485880000001</v>
+        <v>5183.48588</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>4911.337689999999</v>
@@ -1865,25 +1886,30 @@
         <v>11346.73961</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>20659.84517</v>
+        <v>22166.14738</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>20395.43084</v>
+        <v>20398.33416</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>28078.59922</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>63218.21071</v>
+        <v>63250.37034</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>98621.82336000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>98787.84349000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>79861.327</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>822.1673900000001</v>
@@ -1913,25 +1939,30 @@
         <v>36.68159</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>532.12976</v>
+        <v>707.29012</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>403.31306</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>905.664</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>5998.44376</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>5592.463729999999</v>
+        <v>5592.46373</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>6258.797769999999</v>
+        <v>6258.79777</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>6867.72123</v>
@@ -1943,10 +1974,10 @@
         <v>4717.72035</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5938.31631</v>
+        <v>5991.936029999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>6653.742439999999</v>
+        <v>8032.09933</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>8782.497150000001</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>36214.25413</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>41676.763</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>116.14228</v>
@@ -1985,7 +2021,7 @@
         <v>167.82165</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>879.93683</v>
+        <v>920.3916399999999</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1368.08587</v>
@@ -1994,19 +2030,24 @@
         <v>1194.95018</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>7066.119029999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>7066.11903</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>314011.628</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>61733.26293</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>48675.17115</v>
+        <v>48675.17115000001</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>67278.51681</v>
@@ -2021,25 +2062,30 @@
         <v>234044.63296</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>278597.62811</v>
+        <v>293446.6474399999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>191273.40878</v>
+        <v>191339.91156</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>433415.92416</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1428085.9203</v>
+        <v>1428189.61198</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>696836.7920600001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>696839.24492</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1622522.726</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>873.3254499999999</v>
@@ -2060,7 +2106,7 @@
         <v>2354.82345</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>3184.82799</v>
+        <v>3558.43623</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>4496.30933</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>12906.12081</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>8286.599</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2093,7 +2144,7 @@
         <v>55.39545</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>3.96667</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>64.441</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>13986.46877</v>
@@ -2132,37 +2188,42 @@
         <v>19394.04831</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>28024.48745</v>
+        <v>28059.48745</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>27776.61264</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>38677.21693000001</v>
+        <v>42320.90637</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>35746.97588000001</v>
+        <v>35950.98181</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>27603.5073</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>47847.28803</v>
+        <v>47806.37652</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>67176.3841</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>67177.15274999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>81761.592</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>79503.26996999999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>58669.67334</v>
+        <v>58669.67333999999</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>115254.19138</v>
@@ -2177,25 +2238,30 @@
         <v>293451.11801</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>388781.48111</v>
+        <v>398479.09564</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>380195.0542899999</v>
+        <v>383150.69329</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>550558.37872</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1885314.97767</v>
+        <v>1885375.95941</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>942087.9382100001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>942087.9382200001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1850171.873</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>3220.44874</v>
@@ -2204,7 +2270,7 @@
         <v>1622.65583</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2762.889079999999</v>
+        <v>2762.88908</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>191.49442</v>
@@ -2230,17 +2296,22 @@
       <c r="M37" s="48" t="n">
         <v>2922.30567</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>1712.515</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>20415.51062</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>7585.73637</v>
+        <v>7585.736370000001</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>11209.43985</v>
@@ -2255,10 +2326,10 @@
         <v>13961.3462</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>21709.58245</v>
+        <v>21949.64346</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>33015.10069</v>
+        <v>35650.10045000001</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>31810.50979</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>73253.15917</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>155659.094</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>18.62198</v>
@@ -2308,23 +2384,28 @@
       <c r="M39" s="48" t="n">
         <v>5682.38688</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>19745.415</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>42254.65135999999</v>
+        <v>42254.65136</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>42538.15573</v>
+        <v>42538.15573000001</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>89861.66057000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>57740.65523999999</v>
+        <v>57740.65524</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>224805.78144</v>
@@ -2333,25 +2414,30 @@
         <v>257131.30262</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>340214.33069</v>
+        <v>349190.85862</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>320513.60815</v>
+        <v>320832.10843</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>492047.8538</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1773855.8777</v>
+        <v>1773916.85944</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>820115.90253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>820115.9025300001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1613041.599</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>69.10014</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>8769.03858</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>9958.232</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>13524.93713</v>
@@ -2450,10 +2546,10 @@
         <v>15714.37453</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>22814.95779</v>
+        <v>23295.98338</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>22163.27309</v>
+        <v>22165.41205</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>21495.98471</v>
@@ -2462,13 +2558,18 @@
         <v>29748.32947</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>31345.14538</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>31345.14539</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>50055.018</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>72204.49934000001</v>
@@ -2489,31 +2590,36 @@
         <v>187261.51702</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>231805.59324</v>
+        <v>290843.06913</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>299436.9730999999</v>
+        <v>300389.685</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>348071.45908</v>
+        <v>348071.4590800001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>616814.0616700001</v>
+        <v>616929.25028</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>506405.3921400001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>506406.4860500001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>495758.364</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>57249.96783</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>51402.48107000001</v>
+        <v>51402.48107</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>95527.88808</v>
@@ -2528,25 +2634,30 @@
         <v>174767.09499</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>215135.48819</v>
+        <v>273634.01942</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>282445.84011</v>
+        <v>283398.55201</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>328952.9133200001</v>
+        <v>328952.91332</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>584851.5284000001</v>
+        <v>584966.71701</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>465069.08038</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>465070.1742899999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>442166.502</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>14954.53151</v>
@@ -2567,7 +2678,7 @@
         <v>12494.42203</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>16670.10505</v>
+        <v>17209.04971</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>16991.13299</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>41336.31176</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>53591.862</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>134025.14628</v>
@@ -2600,31 +2716,36 @@
         <v>69400.34947</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>2061.599369999997</v>
+        <v>2113.322539999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>150641.13581</v>
+        <v>150580.5998</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>99621.319</v>
+        <v>86967.12070000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>235146.58778</v>
+        <v>237788.96129</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>667189.2398199999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>518457.46958</v>
+        <v>517981.29249</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>949738.3558699999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>948968.8224999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1690013.326</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>38064.65071</v>
@@ -2645,31 +2766,36 @@
         <v>58652.34704</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>69407.28095999999</v>
+        <v>72495.94663000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>69178.07216000001</v>
+        <v>70677.56274000001</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>87856.61846000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>91815.76493999999</v>
+        <v>91902.50487</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>98779.38622</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>99110.98471999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>134984.434</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>460.06467</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>509.7473099999999</v>
+        <v>509.74731</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>265.26509</v>
@@ -2678,13 +2804,13 @@
         <v>2223.27557</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>597.1158099999999</v>
+        <v>597.11581</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>1072.47658</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>752.51935</v>
+        <v>2164.11552</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>3779.09652</v>
@@ -2693,19 +2819,24 @@
         <v>1849.65428</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>3201.644940000001</v>
+        <v>3201.64494</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>9909.999709999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>3312.774</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>37604.58604000001</v>
+        <v>37604.58604</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>24249.69318</v>
@@ -2720,70 +2851,80 @@
         <v>61907.11507000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>57579.87045999999</v>
+        <v>57579.87046</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>68654.76160999999</v>
+        <v>70331.83111</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>65398.97564000001</v>
+        <v>66898.46622</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>86006.96418000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>88614.12</v>
+        <v>88700.85993000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>88869.38651000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>89200.98500999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>131671.66</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>37732.50191000001</v>
+        <v>37732.50191</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>16052.94775</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>48239.89234</v>
+        <v>48239.89234000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>42063.41920999999</v>
+        <v>42063.41921</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>42249.65599</v>
+        <v>42249.65598999999</v>
       </c>
       <c r="H51" s="47" t="n">
         <v>84714.68588</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>40998.13486</v>
+        <v>47278.11996</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>141024.63021</v>
+        <v>141875.04983</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>68033.96017000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>165958.55939</v>
+        <v>173224.4157</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>92938.35575999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>93199.44954999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>123200.226</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>4504.88604</v>
+        <v>4504.886039999999</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>1978.54098</v>
@@ -2795,13 +2936,13 @@
         <v>2237.14861</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>5933.975939999999</v>
+        <v>5933.97594</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>7250.27413</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>7514.31853</v>
+        <v>9931.896710000001</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>24939.26908</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>11192.91548</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>24950.871</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2504.04655</v>
@@ -2840,10 +2986,10 @@
         <v>1510.78834</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2151.60014</v>
+        <v>3590.44973</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2998.42347</v>
+        <v>3001.186940000001</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>3905.21335</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>21408.68163</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>5676.586</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>30723.56932</v>
@@ -2879,25 +3030,30 @@
         <v>75953.62341</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>31332.21619</v>
+        <v>33755.77352</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>113086.93766</v>
+        <v>113934.59381</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>44621.72712999999</v>
+        <v>44621.72713</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>88990.7671</v>
+        <v>96256.62341000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>60336.75865</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>60597.85244</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>92572.769</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>134357.29508</v>
@@ -2909,34 +3065,39 @@
         <v>-40100.61091</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>61759.01353999999</v>
+        <v>61759.01354</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>22316.17426000001</v>
+        <v>22367.89743</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>124578.79697</v>
+        <v>124518.26096</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>128030.4651</v>
+        <v>112184.94737</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>163300.02973</v>
+        <v>166591.4742</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>687011.89811</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>444314.67513</v>
+        <v>436659.38166</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>955579.3863299999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>954880.3576699999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1701797.534</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>20770.81145</v>
@@ -2957,10 +3118,10 @@
         <v>44597.28675</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>59258.87559999999</v>
+        <v>59383.75463</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>84016.38557000001</v>
+        <v>84238.69572</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>125774.47337</v>
@@ -2969,13 +3130,18 @@
         <v>163300.28043</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>186107.02542</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>186163.78546</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>278726.367</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>113586.48363</v>
@@ -2990,28 +3156,31 @@
         <v>41072.56354</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-6369.672250000008</v>
+        <v>-6317.949080000006</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>79981.51022</v>
+        <v>79920.97421</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>68771.5895</v>
+        <v>52801.19273999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>79283.64416</v>
+        <v>82352.77848000001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>561237.42474</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>281014.3947</v>
+        <v>273359.10123</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>769472.3609099999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>768716.57221</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1423071.167</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>431</v>
@@ -3044,28 +3216,31 @@
         <v>436</v>
       </c>
       <c r="G59" s="35" t="n">
+        <v>438</v>
+      </c>
+      <c r="H59" s="35" t="n">
         <v>436</v>
       </c>
-      <c r="H59" s="35" t="n">
-        <v>435</v>
-      </c>
       <c r="I59" s="35" t="n">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>484</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>538</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>